--- a/시장분석용_정보/시장분석용_4376034000.xlsx
+++ b/시장분석용_정보/시장분석용_4376034000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,6 +160,48 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
     <t>202008 8139801265</t>
   </si>
   <si>
@@ -121,16 +211,34 @@
     <t>202010 8139801265</t>
   </si>
   <si>
+    <t>202112 5698200427</t>
+  </si>
+  <si>
+    <t>JDQ4MTYyMiM1MSMkMiMkOCMkMDAkMzgxMTkxIzIxIyQxIyQ1IyQwMyQ0NjEwMDIjNjEjJDEjJDQjJDgz</t>
+  </si>
+  <si>
+    <t>JDQ4MTYyMiM1MSMkMiMkOCMkMDAkMzgxMTkxIzIxIyQxIyQ1IyQ5MiQyNjEwMDIjNTEjJDEjJDIjJDgz</t>
+  </si>
+  <si>
+    <t>충청북도</t>
+  </si>
+  <si>
     <t>서울연합의원</t>
   </si>
   <si>
-    <t>충청북도 괴산군 칠성면 도정로 58 .</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM1MSMkMiMkOCMkMDAkMzgxMTkxIzIxIyQxIyQ1IyQwMyQ0NjEwMDIjNjEjJDEjJDQjJDgz</t>
+    <t>아이쿱의원</t>
+  </si>
+  <si>
+    <t>충청북도 괴산군 칠성면 도정로 58 ()</t>
+  </si>
+  <si>
+    <t>충청북도 괴산군 칠성면 자연드림길 235 2층</t>
   </si>
   <si>
     <t>가정의학과</t>
+  </si>
+  <si>
+    <t>일반의원</t>
   </si>
 </sst>
 </file>
@@ -488,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:BK5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,43 +699,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>172309</v>
+        <v>10392</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2">
         <v>202008</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="E2">
-        <v>119670602</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>8139801265</v>
       </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="J2">
+        <v>4376034000</v>
+      </c>
+      <c r="K2">
         <v>61.01818181818182</v>
       </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2">
-        <v>4376034000</v>
+      <c r="L2" t="s">
+        <v>73</v>
       </c>
       <c r="M2">
         <v>63583</v>
@@ -639,7 +837,7 @@
         <v>6250</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -651,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>43.2</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -660,20 +858,20 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>56.8</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
         <v>100</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
       <c r="AB2">
         <v>0</v>
       </c>
@@ -684,51 +882,141 @@
         <v>0</v>
       </c>
       <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
         <v>100</v>
       </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>100</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>100</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>100</v>
+      </c>
+      <c r="BH2">
+        <v>100</v>
+      </c>
+      <c r="BI2">
+        <v>100</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>194029</v>
+        <v>11731</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3">
         <v>202009</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="E3">
-        <v>119670602</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>8139801265</v>
       </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="J3">
+        <v>4376034000</v>
+      </c>
+      <c r="K3">
         <v>61.01818181818182</v>
       </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3">
-        <v>4376034000</v>
+      <c r="L3" t="s">
+        <v>73</v>
       </c>
       <c r="M3">
         <v>566877</v>
@@ -740,96 +1028,186 @@
         <v>7962</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>86.67</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>13.33</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>55.17</v>
+      </c>
+      <c r="T3">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="W3">
+        <v>14.11</v>
+      </c>
+      <c r="X3">
+        <v>13.33</v>
+      </c>
+      <c r="Y3">
+        <v>16.14</v>
+      </c>
+      <c r="Z3">
+        <v>68.02</v>
+      </c>
+      <c r="AA3">
+        <v>15.85</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
         <v>4.64</v>
       </c>
-      <c r="S3">
+      <c r="AI3">
         <v>5.22</v>
       </c>
-      <c r="T3">
+      <c r="AJ3">
         <v>1.84</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
         <v>4.64</v>
       </c>
-      <c r="W3">
+      <c r="AM3">
         <v>7.15</v>
       </c>
-      <c r="X3">
+      <c r="AN3">
         <v>18.55</v>
       </c>
-      <c r="Y3">
+      <c r="AO3">
         <v>57.97</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>8.210000000000001</v>
       </c>
-      <c r="AD3">
+      <c r="AT3">
         <v>61.26</v>
       </c>
-      <c r="AE3">
+      <c r="AU3">
         <v>15.75</v>
       </c>
-      <c r="AF3">
+      <c r="AV3">
         <v>14.78</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>4.64</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>7.15</v>
+      </c>
+      <c r="BA3">
+        <v>17.97</v>
+      </c>
+      <c r="BB3">
+        <v>65.22</v>
+      </c>
+      <c r="BC3">
+        <v>5.02</v>
+      </c>
+      <c r="BD3">
+        <v>5.22</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>29.28</v>
+      </c>
+      <c r="BH3">
+        <v>29.28</v>
+      </c>
+      <c r="BI3">
+        <v>84.93000000000001</v>
+      </c>
+      <c r="BJ3">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BK3">
+        <v>8.300000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>215757</v>
+        <v>13070</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4">
         <v>202010</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2020</v>
       </c>
-      <c r="E4">
-        <v>119670602</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>8139801265</v>
       </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="J4">
+        <v>4376034000</v>
+      </c>
+      <c r="K4">
         <v>61.01818181818182</v>
       </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4">
-        <v>4376034000</v>
+      <c r="L4" t="s">
+        <v>73</v>
       </c>
       <c r="M4">
         <v>866402</v>
@@ -841,7 +1219,7 @@
         <v>33880</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -850,49 +1228,330 @@
         <v>0</v>
       </c>
       <c r="S4">
+        <v>10.21</v>
+      </c>
+      <c r="T4">
         <v>8.85</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>0</v>
+        <v>35.42</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
+        <v>45.51</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>8.85</v>
+      </c>
+      <c r="Z4">
+        <v>45.51</v>
+      </c>
+      <c r="AA4">
+        <v>45.63</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>8.85</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
         <v>6.08</v>
       </c>
-      <c r="X4">
+      <c r="AN4">
         <v>35.42</v>
       </c>
-      <c r="Y4">
+      <c r="AO4">
         <v>49.65</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
         <v>95.87</v>
       </c>
-      <c r="AE4">
+      <c r="AU4">
         <v>4.13</v>
       </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>50.35</v>
+      </c>
+      <c r="BB4">
+        <v>49.65</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>12.99</v>
+      </c>
+      <c r="BH4">
+        <v>19.07</v>
+      </c>
+      <c r="BI4">
+        <v>19.07</v>
+      </c>
+      <c r="BJ4">
+        <v>20</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>32112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5">
+        <v>202112</v>
+      </c>
+      <c r="F5">
+        <v>2021</v>
+      </c>
+      <c r="G5">
+        <v>5698200427</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5">
+        <v>4376034000</v>
+      </c>
+      <c r="K5">
+        <v>45.02424242424243</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5">
+        <v>1454690</v>
+      </c>
+      <c r="N5">
+        <v>16</v>
+      </c>
+      <c r="O5">
+        <v>93850</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>100</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>61.46</v>
+      </c>
+      <c r="AA5">
+        <v>38.54</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>38.54</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>61.46</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>38.54</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>61.46</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>100</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/시장분석용_정보/시장분석용_4376034000.xlsx
+++ b/시장분석용_정보/시장분석용_4376034000.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
-  <si>
-    <t>중복체크</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>sim_cd</t>
   </si>
@@ -158,60 +155,6 @@
   </si>
   <si>
     <t>IC_1099_RT</t>
-  </si>
-  <si>
-    <t>LIFE_01_RT</t>
-  </si>
-  <si>
-    <t>LIFE_02_RT</t>
-  </si>
-  <si>
-    <t>LIFE_03_RT</t>
-  </si>
-  <si>
-    <t>LIFE_04_RT</t>
-  </si>
-  <si>
-    <t>LIFE_05_RT</t>
-  </si>
-  <si>
-    <t>LIFE_06_RT</t>
-  </si>
-  <si>
-    <t>FTJB_HUWF_RT</t>
-  </si>
-  <si>
-    <t>STUD_RT</t>
-  </si>
-  <si>
-    <t>SCTY_EAR_H_RT</t>
-  </si>
-  <si>
-    <t>GDS_01_RT</t>
-  </si>
-  <si>
-    <t>GDS_02_RT</t>
-  </si>
-  <si>
-    <t>GDS_03_RT</t>
-  </si>
-  <si>
-    <t>REVISIT_RT</t>
-  </si>
-  <si>
-    <t>FREQ_RT</t>
-  </si>
-  <si>
-    <t>202008 8139801265</t>
-  </si>
-  <si>
-    <t>202009 8139801265</t>
-  </si>
-  <si>
-    <t>202010 8139801265</t>
-  </si>
-  <si>
-    <t>202112 5698200427</t>
   </si>
   <si>
     <t>JDQ4MTYyMiM1MSMkMiMkOCMkMDAkMzgxMTkxIzIxIyQxIyQ1IyQwMyQ0NjEwMDIjNjEjJDEjJDQjJDgz</t>
@@ -596,13 +539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK5"/>
+  <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,324 +687,234 @@
       <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:48">
       <c r="A2" s="1">
         <v>10392</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>202008</v>
       </c>
       <c r="E2">
-        <v>202008</v>
+        <v>2020</v>
       </c>
       <c r="F2">
-        <v>2020</v>
-      </c>
-      <c r="G2">
         <v>8139801265</v>
       </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
       <c r="H2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="I2">
+        <v>4376034000</v>
       </c>
       <c r="J2">
-        <v>4376034000</v>
-      </c>
-      <c r="K2">
         <v>61.01818181818182</v>
       </c>
-      <c r="L2" t="s">
-        <v>73</v>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2">
+        <v>63583</v>
       </c>
       <c r="M2">
-        <v>63583</v>
+        <v>10</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>6250</v>
       </c>
       <c r="O2">
-        <v>6250</v>
+        <v>100</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>43.2</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>56.8</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
         <v>100</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>43.2</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>56.8</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
       <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
         <v>100</v>
       </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
       <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
         <v>100</v>
       </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
       <c r="AU2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AV2">
         <v>0</v>
       </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>100</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>100</v>
-      </c>
-      <c r="BH2">
-        <v>100</v>
-      </c>
-      <c r="BI2">
-        <v>100</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>100</v>
-      </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:48">
       <c r="A3" s="1">
         <v>11731</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>202009</v>
       </c>
       <c r="E3">
-        <v>202009</v>
+        <v>2020</v>
       </c>
       <c r="F3">
-        <v>2020</v>
-      </c>
-      <c r="G3">
         <v>8139801265</v>
       </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
       <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3">
+        <v>4376034000</v>
+      </c>
+      <c r="J3">
+        <v>61.01818181818182</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3">
+        <v>566877</v>
+      </c>
+      <c r="M3">
         <v>69</v>
       </c>
-      <c r="I3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3">
-        <v>4376034000</v>
-      </c>
-      <c r="K3">
-        <v>61.01818181818182</v>
-      </c>
-      <c r="L3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3">
-        <v>566877</v>
-      </c>
       <c r="N3">
-        <v>69</v>
+        <v>7962</v>
       </c>
       <c r="O3">
-        <v>7962</v>
+        <v>86.67</v>
       </c>
       <c r="P3">
-        <v>86.67</v>
+        <v>13.33</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>55.17</v>
+      </c>
+      <c r="S3">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="V3">
+        <v>14.11</v>
+      </c>
+      <c r="W3">
         <v>13.33</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>55.17</v>
-      </c>
-      <c r="T3">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="W3">
-        <v>14.11</v>
-      </c>
       <c r="X3">
-        <v>13.33</v>
+        <v>16.14</v>
       </c>
       <c r="Y3">
-        <v>16.14</v>
+        <v>68.02</v>
       </c>
       <c r="Z3">
-        <v>68.02</v>
+        <v>15.85</v>
       </c>
       <c r="AA3">
-        <v>15.85</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1079,31 +932,31 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>4.64</v>
       </c>
       <c r="AH3">
+        <v>5.22</v>
+      </c>
+      <c r="AI3">
+        <v>1.84</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
         <v>4.64</v>
       </c>
-      <c r="AI3">
-        <v>5.22</v>
-      </c>
-      <c r="AJ3">
-        <v>1.84</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
       <c r="AL3">
-        <v>4.64</v>
+        <v>7.15</v>
       </c>
       <c r="AM3">
-        <v>7.15</v>
+        <v>18.55</v>
       </c>
       <c r="AN3">
-        <v>18.55</v>
+        <v>57.97</v>
       </c>
       <c r="AO3">
-        <v>57.97</v>
+        <v>0</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -1112,189 +965,144 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="AS3">
-        <v>8.210000000000001</v>
+        <v>61.26</v>
       </c>
       <c r="AT3">
-        <v>61.26</v>
+        <v>15.75</v>
       </c>
       <c r="AU3">
-        <v>15.75</v>
+        <v>14.78</v>
       </c>
       <c r="AV3">
-        <v>14.78</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>4.64</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>7.15</v>
-      </c>
-      <c r="BA3">
-        <v>17.97</v>
-      </c>
-      <c r="BB3">
-        <v>65.22</v>
-      </c>
-      <c r="BC3">
-        <v>5.02</v>
-      </c>
-      <c r="BD3">
-        <v>5.22</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>29.28</v>
-      </c>
-      <c r="BH3">
-        <v>29.28</v>
-      </c>
-      <c r="BI3">
-        <v>84.93000000000001</v>
-      </c>
-      <c r="BJ3">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="BK3">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:48">
       <c r="A4" s="1">
         <v>13070</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>202010</v>
       </c>
       <c r="E4">
-        <v>202010</v>
+        <v>2020</v>
       </c>
       <c r="F4">
-        <v>2020</v>
-      </c>
-      <c r="G4">
         <v>8139801265</v>
       </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
       <c r="H4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="I4">
+        <v>4376034000</v>
       </c>
       <c r="J4">
-        <v>4376034000</v>
-      </c>
-      <c r="K4">
         <v>61.01818181818182</v>
       </c>
-      <c r="L4" t="s">
-        <v>73</v>
+      <c r="K4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4">
+        <v>866402</v>
       </c>
       <c r="M4">
-        <v>866402</v>
+        <v>26</v>
       </c>
       <c r="N4">
-        <v>26</v>
+        <v>33880</v>
       </c>
       <c r="O4">
-        <v>33880</v>
+        <v>100</v>
       </c>
       <c r="P4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>10.21</v>
       </c>
       <c r="S4">
-        <v>10.21</v>
+        <v>8.85</v>
       </c>
       <c r="T4">
+        <v>35.42</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>45.51</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>8.85</v>
       </c>
-      <c r="U4">
+      <c r="Y4">
+        <v>45.51</v>
+      </c>
+      <c r="Z4">
+        <v>45.63</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>8.85</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>6.08</v>
+      </c>
+      <c r="AM4">
         <v>35.42</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>45.51</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>8.85</v>
-      </c>
-      <c r="Z4">
-        <v>45.51</v>
-      </c>
-      <c r="AA4">
-        <v>45.63</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>8.85</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>6.08</v>
-      </c>
       <c r="AN4">
-        <v>35.42</v>
+        <v>49.65</v>
       </c>
       <c r="AO4">
-        <v>49.65</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -1306,252 +1114,162 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>95.87</v>
       </c>
       <c r="AT4">
-        <v>95.87</v>
+        <v>4.13</v>
       </c>
       <c r="AU4">
-        <v>4.13</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
       </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>50.35</v>
-      </c>
-      <c r="BB4">
-        <v>49.65</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>12.99</v>
-      </c>
-      <c r="BH4">
-        <v>19.07</v>
-      </c>
-      <c r="BI4">
-        <v>19.07</v>
-      </c>
-      <c r="BJ4">
-        <v>20</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:48">
       <c r="A5" s="1">
         <v>32112</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>202112</v>
       </c>
       <c r="E5">
-        <v>202112</v>
+        <v>2021</v>
       </c>
       <c r="F5">
-        <v>2021</v>
-      </c>
-      <c r="G5">
         <v>5698200427</v>
       </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
       <c r="H5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
+        <v>53</v>
+      </c>
+      <c r="I5">
+        <v>4376034000</v>
       </c>
       <c r="J5">
-        <v>4376034000</v>
-      </c>
-      <c r="K5">
         <v>45.02424242424243</v>
       </c>
-      <c r="L5" t="s">
-        <v>74</v>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5">
+        <v>1454690</v>
       </c>
       <c r="M5">
-        <v>1454690</v>
+        <v>16</v>
       </c>
       <c r="N5">
-        <v>16</v>
+        <v>93850</v>
       </c>
       <c r="O5">
-        <v>93850</v>
+        <v>100</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>100</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
       <c r="W5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>61.46</v>
       </c>
       <c r="Z5">
+        <v>38.54</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>38.54</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
         <v>61.46</v>
       </c>
-      <c r="AA5">
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
         <v>38.54</v>
       </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>38.54</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
         <v>61.46</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>38.54</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>61.46</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>100</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/시장분석용_정보/시장분석용_4376034000.xlsx
+++ b/시장분석용_정보/시장분석용_4376034000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -539,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,64 +591,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>10392</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>202008</v>
@@ -708,10 +612,10 @@
         <v>8139801265</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>4376034000</v>
@@ -720,7 +624,7 @@
         <v>61.01818181818182</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L2">
         <v>63583</v>
@@ -732,117 +636,69 @@
         <v>6250</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>100</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>43.2</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>56.8</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>100</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>100</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>100</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>11731</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>202009</v>
@@ -854,10 +710,10 @@
         <v>8139801265</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I3">
         <v>4376034000</v>
@@ -866,7 +722,7 @@
         <v>61.01818181818182</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L3">
         <v>566877</v>
@@ -878,117 +734,69 @@
         <v>7962</v>
       </c>
       <c r="O3">
-        <v>86.67</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.33</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>4.64</v>
       </c>
       <c r="R3">
-        <v>55.17</v>
+        <v>5.22</v>
       </c>
       <c r="S3">
-        <v>8.119999999999999</v>
+        <v>1.84</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>9.279999999999999</v>
+        <v>4.64</v>
       </c>
       <c r="V3">
-        <v>14.11</v>
+        <v>7.15</v>
       </c>
       <c r="W3">
-        <v>13.33</v>
+        <v>18.55</v>
       </c>
       <c r="X3">
-        <v>16.14</v>
+        <v>57.97</v>
       </c>
       <c r="Y3">
-        <v>68.02</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>15.85</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>61.26</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>15.75</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>14.78</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>4.64</v>
-      </c>
-      <c r="AH3">
-        <v>5.22</v>
-      </c>
-      <c r="AI3">
-        <v>1.84</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>4.64</v>
-      </c>
-      <c r="AL3">
-        <v>7.15</v>
-      </c>
-      <c r="AM3">
-        <v>18.55</v>
-      </c>
-      <c r="AN3">
-        <v>57.97</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="AS3">
-        <v>61.26</v>
-      </c>
-      <c r="AT3">
-        <v>15.75</v>
-      </c>
-      <c r="AU3">
-        <v>14.78</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>13070</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>202010</v>
@@ -1000,10 +808,10 @@
         <v>8139801265</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>4376034000</v>
@@ -1012,7 +820,7 @@
         <v>61.01818181818182</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L4">
         <v>866402</v>
@@ -1024,7 +832,7 @@
         <v>33880</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1033,31 +841,31 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>10.21</v>
+        <v>8.85</v>
       </c>
       <c r="S4">
-        <v>8.85</v>
+        <v>0</v>
       </c>
       <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>6.08</v>
+      </c>
+      <c r="W4">
         <v>35.42</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>45.51</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
       <c r="X4">
-        <v>8.85</v>
+        <v>49.65</v>
       </c>
       <c r="Y4">
-        <v>45.51</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>45.63</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -1066,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>95.87</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1077,64 +885,16 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>8.85</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>6.08</v>
-      </c>
-      <c r="AM4">
-        <v>35.42</v>
-      </c>
-      <c r="AN4">
-        <v>49.65</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>95.87</v>
-      </c>
-      <c r="AT4">
-        <v>4.13</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>32112</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>202112</v>
@@ -1146,10 +906,10 @@
         <v>5698200427</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>4376034000</v>
@@ -1158,7 +918,7 @@
         <v>45.02424242424243</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="L5">
         <v>1454690</v>
@@ -1170,7 +930,7 @@
         <v>93850</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1179,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>38.54</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1191,84 +951,36 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>61.46</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>61.46</v>
+        <v>0</v>
       </c>
       <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
         <v>38.54</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>38.54</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>61.46</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>38.54</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
         <v>61.46</v>
       </c>
     </row>
